--- a/StructureDefinition-profile-ResearchStudy.xlsx
+++ b/StructureDefinition-profile-ResearchStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7815675-06:00</t>
+    <t>2026-02-09T22:05:43.3072647-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,206 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.url|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this study resource, represented as a globally unique URI.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.url` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The business version for the study record.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.version` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Name for this study (computer friendly).</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:label</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.label from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional names for the study.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.label` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.date from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date (and optionally time) when the ResearchStudy Resource was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ResearchStudy Resource changes.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.date` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:studyDesign</t>
+  </si>
+  <si>
+    <t>studyDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.studyDesign from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.studyDesign` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:descriptionSummary</t>
+  </si>
+  <si>
+    <t>descriptionSummary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.descriptionSummary from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A brief text for explaining the study.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.descriptionSummary` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:classifier</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.classifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional grouping mechanism or categorization of a research study. Example: FDA regulated device, FDA regulated drug, MPG Paragraph 23b (a German legal requirement), IRB-exempt, etc. Implementation Note: do not use the classifier element to support existing semantics that are already supported thru explicit elements in the resource.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.classifier` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:associatedParty</t>
+  </si>
+  <si>
+    <t>associatedParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.associatedParty from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Sponsors, collaborators, and other parties.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.associatedParty` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:progressStatus</t>
+  </si>
+  <si>
+    <t>progressStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.progressStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Status of study with time for that status.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.progressStatus` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:recruitment</t>
+  </si>
+  <si>
+    <t>recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment|0.0.1-snapshot-3}
 </t>
   </si>
@@ -470,8 +670,46 @@
     <t>Target or actual group of participants enrolled in study.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>Element `ResearchStudy.recruitment` is mapped to FHIR R4 element `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:outcomeMeasure</t>
+  </si>
+  <si>
+    <t>outcomeMeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure|0.0.1-snapshot-3}
 </t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.outcomeMeasure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An "outcome measure", "endpoint", "effect measure" or "measure of effect" is a specific measurement or observation used to quantify the effect of experimental variables on the participants in a study, or for observational studies, to describe patterns of diseases or traits or associations with exposures, risk factors or treatment.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.outcomeMeasure` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:result</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.result from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Citation,http://hl7.org/fhir/StructureDefinition/DiagnosticReport,http://hl7.org/fhir/StructureDefinition/EvidenceReport in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.result` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.result` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -637,6 +875,12 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ResearchStudy.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status|0.0.1-snapshot-3}
 </t>
   </si>
@@ -647,6 +891,10 @@
     <t>The publication state of the resource (not of the study).</t>
   </si>
   <si>
+    <t>Note that the target element context `ResearchStudy.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `ResearchStudy.status` is mapped to FHIR R4 element `ResearchStudy.status`.</t>
+  </si>
+  <si>
     <t>ResearchStudy.status.value</t>
   </si>
   <si>
@@ -711,9 +959,6 @@
     <t>Classifications for the study</t>
   </si>
   <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
-  </si>
-  <si>
     <t>Codes that describe the type of research study.  E.g. Study phase, Interventional/Observational, blinding type, etc.</t>
   </si>
   <si>
@@ -760,6 +1005,12 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.focus.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus|0.0.1-snapshot-3}
@@ -769,6 +1020,9 @@
     <t>Cross-version extension for ResearchStudy.focus from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ResearchStudy.focus` is mapped to FHIR R4 element `ResearchStudy.focus`.</t>
+  </si>
+  <si>
     <t>ResearchStudy.focus.coding</t>
   </si>
   <si>
@@ -1068,11 +1322,20 @@
     <t>ResearchStudy.site.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.site|0.0.1-snapshot-3}
-</t>
+    <t>ResearchStudy.site.extension:site</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
   <si>
     <t>Cross-version extension for ResearchStudy.site from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.site` is mapped to FHIR R4 element `ResearchStudy.site`.</t>
   </si>
   <si>
     <t>ResearchStudy.site.reference</t>
@@ -1217,10 +1480,55 @@
     <t>ResearchStudy.arm.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ResearchStudy.arm.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.comparisonGroup.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Allows the comparisonGroup for the study and the comparisonGroup for the subject to be linked easily.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.comparisonGroup.linkId` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.arm.extension:intendedExposure</t>
+  </si>
+  <si>
+    <t>intendedExposure</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.comparisonGroup.intendedExposure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/EvidenceVariable in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.comparisonGroup.intendedExposure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.comparisonGroup.intendedExposure` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.arm.extension:observedGroup</t>
+  </si>
+  <si>
+    <t>observedGroup</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.comparisonGroup.observedGroup from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.comparisonGroup.observedGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.comparisonGroup.observedGroup` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1301,6 +1609,25 @@
   </si>
   <si>
     <t>ResearchStudy.objective.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ResearchStudy.objective.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Free text description of the objective of the study.  This is what the study is trying to achieve rather than how it is going to achieve it (see ResearchStudy.description).</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.objective.description` is will have a context of ResearchStudy.objective based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.objective.modifierExtension</t>
@@ -1640,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1649,9 +1976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1659,7 +1986,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2646,7 +2973,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -2748,12 +3075,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2774,15 +3103,17 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2840,7 +3171,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -2863,46 +3194,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -2950,7 +3281,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2959,7 +3290,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -2971,7 +3302,7 @@
         <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -2982,12 +3313,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -2996,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3005,21 +3338,21 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3067,7 +3400,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3076,35 +3409,37 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3113,7 +3448,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3122,7 +3457,7 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>164</v>
@@ -3133,7 +3468,9 @@
       <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3182,22 +3519,22 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
@@ -3206,7 +3543,7 @@
         <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3214,12 +3551,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3228,7 +3567,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3237,7 +3576,7 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>170</v>
@@ -3248,7 +3587,9 @@
       <c r="M14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3297,7 +3638,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3306,22 +3647,22 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3329,14 +3670,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3352,21 +3695,21 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3414,7 +3757,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3423,19 +3766,19 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3446,18 +3789,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>91</v>
@@ -3466,21 +3811,23 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3505,13 +3852,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3529,44 +3876,46 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3575,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3587,15 +3936,17 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3644,19 +3995,19 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3676,18 +4027,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>80</v>
@@ -3702,15 +4055,17 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3747,17 +4102,19 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3766,7 +4123,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>142</v>
@@ -3789,21 +4146,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -3815,15 +4174,17 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3872,7 +4233,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3881,7 +4242,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>142</v>
@@ -3904,12 +4265,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
@@ -3930,15 +4293,17 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3987,19 +4352,19 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4019,12 +4384,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4033,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4042,18 +4409,20 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4078,13 +4447,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4102,22 +4471,22 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4134,12 +4503,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4148,7 +4519,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4157,18 +4528,20 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4193,13 +4566,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4217,22 +4590,22 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4241,7 +4614,7 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4249,14 +4622,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4269,22 +4642,26 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4308,10 +4685,10 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
@@ -4332,7 +4709,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4344,19 +4721,19 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4364,10 +4741,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4390,16 +4767,18 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4423,10 +4802,10 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4447,7 +4826,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4462,27 +4841,27 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4502,16 +4881,16 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4562,7 +4941,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4574,19 +4953,19 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4594,10 +4973,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4605,7 +4984,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4617,16 +4996,16 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4665,19 +5044,19 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4689,19 +5068,19 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4709,14 +5088,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4732,19 +5111,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4792,7 +5173,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4804,16 +5185,16 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4824,10 +5205,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4835,35 +5216,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4887,13 +5264,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4911,13 +5288,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -4926,27 +5303,27 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4966,23 +5343,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5030,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5042,16 +5415,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5062,10 +5435,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5073,7 +5446,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5085,16 +5458,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5121,31 +5494,29 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5157,10 +5528,10 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
@@ -5169,29 +5540,31 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5200,18 +5573,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5260,7 +5635,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5269,13 +5644,13 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
@@ -5284,7 +5659,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5292,10 +5667,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5306,7 +5681,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5318,13 +5693,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5375,22 +5750,22 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5399,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5407,10 +5782,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5421,7 +5796,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5433,13 +5808,13 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5466,13 +5841,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5490,13 +5865,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5505,7 +5880,7 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5514,7 +5889,7 @@
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5522,10 +5897,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5536,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5548,13 +5923,13 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5581,13 +5956,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5605,13 +5980,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5620,7 +5995,7 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5629,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5637,10 +6012,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5651,7 +6026,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5660,16 +6035,16 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5696,10 +6071,10 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -5720,13 +6095,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5735,7 +6110,7 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -5744,7 +6119,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5752,14 +6127,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5778,17 +6153,15 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5813,10 +6186,10 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -5837,7 +6210,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5852,31 +6225,31 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5892,16 +6265,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5952,7 +6325,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5964,22 +6337,22 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -5998,7 +6371,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6007,16 +6380,16 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>138</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6055,56 +6428,58 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6113,7 +6488,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6122,18 +6497,20 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6182,22 +6559,22 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6206,18 +6583,18 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6240,16 +6617,20 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6297,7 +6678,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6312,27 +6693,27 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6352,19 +6733,23 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6412,7 +6797,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6424,16 +6809,16 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6444,10 +6829,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6455,7 +6840,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6467,16 +6852,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6503,31 +6888,31 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6539,10 +6924,10 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6551,18 +6936,18 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6582,16 +6967,16 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6642,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6654,10 +7039,10 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -6666,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6674,10 +7059,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6688,7 +7073,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6697,20 +7082,18 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6759,31 +7142,31 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6791,10 +7174,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6805,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6817,17 +7200,15 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6852,13 +7233,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -6876,13 +7257,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -6891,16 +7272,16 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6908,10 +7289,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6922,7 +7303,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6934,17 +7315,15 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6969,13 +7348,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6993,13 +7372,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7008,13 +7387,13 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7025,10 +7404,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7048,20 +7427,18 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7110,7 +7487,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7125,16 +7502,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7142,21 +7519,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7168,15 +7545,17 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7201,13 +7580,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7225,13 +7604,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7240,38 +7619,38 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7280,16 +7659,16 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7340,13 +7719,13 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
@@ -7355,27 +7734,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7386,7 +7765,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7395,16 +7774,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7455,13 +7834,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -7470,27 +7849,27 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7510,16 +7889,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>406</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7570,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7582,34 +7961,34 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7625,20 +8004,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7687,7 +8064,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7699,66 +8076,62 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7806,19 +8179,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>271</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -7827,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -7838,10 +8211,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7849,10 +8222,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -7864,13 +8237,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>393</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7909,34 +8282,34 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -7945,7 +8318,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -7953,12 +8326,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>81</v>
       </c>
@@ -7979,15 +8354,17 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8036,22 +8413,22 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -8060,7 +8437,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8068,10 +8445,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8091,18 +8468,20 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8151,7 +8530,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8160,22 +8539,22 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8183,10 +8562,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8197,7 +8576,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8206,18 +8585,20 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8242,13 +8623,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8266,13 +8647,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8281,13 +8662,13 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8298,10 +8679,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8321,18 +8702,20 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8381,7 +8764,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>196</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8393,7 +8776,7 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -8402,7 +8785,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8413,21 +8796,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8436,19 +8819,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8498,19 +8881,19 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>445</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -8519,7 +8902,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8530,46 +8913,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8593,13 +8972,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8617,42 +8996,42 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8663,7 +9042,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -8675,13 +9054,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>455</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8732,13 +9111,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -8747,13 +9126,13 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8764,10 +9143,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8778,7 +9157,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -8790,13 +9169,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8823,13 +9202,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -8847,13 +9226,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -8862,7 +9241,7 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -8871,9 +9250,1869 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC64" s="2"/>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC74" s="2"/>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ResearchStudy.xlsx
+++ b/StructureDefinition-profile-ResearchStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3072647-06:00</t>
+    <t>2026-02-17T14:42:26.8906965-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
     <t>Canonical identifier for this study resource, represented as a globally unique URI.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.url` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.url` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -499,7 +499,7 @@
     <t>The business version for the study record.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.version` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.version` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:name</t>
@@ -518,7 +518,7 @@
     <t>Name for this study (computer friendly).</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:label</t>
@@ -537,7 +537,7 @@
     <t>Additional names for the study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.label` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.label` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:date</t>
@@ -556,7 +556,7 @@
     <t>The date (and optionally time) when the ResearchStudy Resource was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ResearchStudy Resource changes.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.date` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.date` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:studyDesign</t>
@@ -575,7 +575,7 @@
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.studyDesign` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.studyDesign` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:descriptionSummary</t>
@@ -594,7 +594,7 @@
     <t>A brief text for explaining the study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.descriptionSummary` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.descriptionSummary` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:classifier</t>
@@ -613,7 +613,7 @@
     <t>Additional grouping mechanism or categorization of a research study. Example: FDA regulated device, FDA regulated drug, MPG Paragraph 23b (a German legal requirement), IRB-exempt, etc. Implementation Note: do not use the classifier element to support existing semantics that are already supported thru explicit elements in the resource.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.classifier` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.classifier` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:associatedParty</t>
@@ -632,7 +632,7 @@
     <t>Sponsors, collaborators, and other parties.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.associatedParty` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:progressStatus</t>
@@ -651,7 +651,7 @@
     <t>Status of study with time for that status.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.progressStatus` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.progressStatus` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:recruitment</t>
@@ -670,7 +670,7 @@
     <t>Target or actual group of participants enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment` is mapped to FHIR R4 element `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment` has is mapped to FHIR R4 element `ResearchStudy`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:outcomeMeasure</t>
@@ -689,7 +689,7 @@
     <t>An "outcome measure", "endpoint", "effect measure" or "measure of effect" is a specific measurement or observation used to quantify the effect of experimental variables on the participants in a study, or for observational studies, to describe patterns of diseases or traits or associations with exposures, risk factors or treatment.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.outcomeMeasure` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.outcomeMeasure` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:result</t>
@@ -709,7 +709,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.result` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.result` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.result` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -892,7 +892,7 @@
   </si>
   <si>
     <t>Note that the target element context `ResearchStudy.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `ResearchStudy.status` is mapped to FHIR R4 element `ResearchStudy.status`.</t>
+Element `ResearchStudy.status` has is mapped to FHIR R4 element `ResearchStudy.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.status.value</t>
@@ -1020,7 +1020,7 @@
     <t>Cross-version extension for ResearchStudy.focus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.focus` is mapped to FHIR R4 element `ResearchStudy.focus`.</t>
+    <t>Element `ResearchStudy.focus` has is mapped to FHIR R4 element `ResearchStudy.focus`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.focus.coding</t>
@@ -1335,7 +1335,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.site` is mapped to FHIR R4 element `ResearchStudy.site`.</t>
+Element `ResearchStudy.site` has is mapped to FHIR R4 element `ResearchStudy.site`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.site.reference</t>
@@ -1480,55 +1480,23 @@
     <t>ResearchStudy.arm.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.arm.extension:linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.linkId|0.0.1-snapshot-3}
+    <t>ResearchStudy.arm.extension:comparisonGroup</t>
+  </si>
+  <si>
+    <t>comparisonGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ResearchStudy.comparisonGroup.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Allows the comparisonGroup for the study and the comparisonGroup for the subject to be linked easily.</t>
-  </si>
-  <si>
-    <t>Element `ResearchStudy.comparisonGroup.linkId` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.extension:intendedExposure</t>
-  </si>
-  <si>
-    <t>intendedExposure</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ResearchStudy.comparisonGroup.intendedExposure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/EvidenceVariable in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.comparisonGroup.intendedExposure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.comparisonGroup.intendedExposure` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.extension:observedGroup</t>
-  </si>
-  <si>
-    <t>observedGroup</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ResearchStudy.comparisonGroup.observedGroup from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.comparisonGroup.observedGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.comparisonGroup.observedGroup` is will have a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Cross-version extension for ResearchStudy.comparisonGroup from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Describes an expected event or sequence of events for one of the subjects of a study. E.g. for a living subject: exposure to drug A, wash-out, exposure to drug B, wash-out, follow-up. E.g. for a stability study: {store sample from lot A at 25 degrees for 1 month}, {store sample from lot A at 40 degrees for 1 month}.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.comparisonGroup` has is mapped to FHIR R4 element `ResearchStudy.arm`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1611,23 +1579,20 @@
     <t>ResearchStudy.objective.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.objective.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.description|0.0.1-snapshot-3}
+    <t>ResearchStudy.objective.extension:objective</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ResearchStudy.objective.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Free text description of the objective of the study.  This is what the study is trying to achieve rather than how it is going to achieve it (see ResearchStudy.description).</t>
-  </si>
-  <si>
-    <t>Element `ResearchStudy.objective.description` is will have a context of ResearchStudy.objective based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Cross-version extension for ResearchStudy.objective from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.objective` has is mapped to FHIR R4 element `ResearchStudy.objective`, but has no comparisons.</t>
   </si>
   <si>
     <t>ResearchStudy.objective.modifierExtension</t>
@@ -1967,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1976,7 +1941,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.75" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1986,7 +1951,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9502,7 +9467,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9608,13 +9573,11 @@
         <v>474</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C66" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9627,13 +9590,13 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>476</v>
@@ -9642,9 +9605,11 @@
         <v>477</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9692,7 +9657,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>273</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9678,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9727,17 +9692,15 @@
         <v>479</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -9752,17 +9715,15 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>483</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9811,22 +9772,22 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>273</v>
+        <v>479</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
@@ -9835,7 +9796,7 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -9850,39 +9811,35 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9930,31 +9887,31 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -9973,7 +9930,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>91</v>
@@ -10048,7 +10005,7 @@
         <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>91</v>
@@ -10091,7 +10048,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10103,7 +10060,7 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>495</v>
@@ -10166,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
@@ -10184,7 +10141,7 @@
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -10192,10 +10149,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10221,10 +10178,10 @@
         <v>239</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>501</v>
+        <v>313</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10275,7 +10232,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10287,19 +10244,19 @@
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10307,10 +10264,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10333,13 +10290,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>506</v>
+        <v>138</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10378,19 +10335,17 @@
         <v>81</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10402,10 +10357,10 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>81</v>
@@ -10422,12 +10377,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10436,7 +10393,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10448,15 +10405,17 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10505,19 +10464,19 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10526,7 +10485,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10537,14 +10496,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10557,22 +10516,26 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>476</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10608,17 +10571,19 @@
         <v>81</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>273</v>
+        <v>478</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10639,7 +10604,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10650,14 +10615,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10678,17 +10641,15 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>239</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10737,22 +10698,22 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>273</v>
+        <v>506</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -10769,46 +10730,42 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10832,13 +10789,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -10856,263 +10813,33 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ResearchStudy.xlsx
+++ b/StructureDefinition-profile-ResearchStudy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8906965-06:00</t>
+    <t>2026-02-20T11:59:20.9327173-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ResearchStudy|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ResearchStudy</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,7 +466,7 @@
     <t>url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.url|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.url}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.version}
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.name}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>studyDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>descriptionSummary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
 </t>
   </si>
   <si>
@@ -603,7 +603,7 @@
     <t>classifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>associatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty}
 </t>
   </si>
   <si>
@@ -641,7 +641,7 @@
     <t>progressStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>recruitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment}
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>outcomeMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure}
 </t>
   </si>
   <si>
@@ -698,7 +698,7 @@
     <t>result</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -881,7 +881,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status}
 </t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus}
 </t>
   </si>
   <si>
@@ -1486,7 +1486,7 @@
     <t>comparisonGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup}
 </t>
   </si>
   <si>
@@ -1585,7 +1585,7 @@
     <t>objective</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective}
 </t>
   </si>
   <si>
@@ -1951,7 +1951,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-ResearchStudy.xlsx
+++ b/StructureDefinition-profile-ResearchStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9327173-06:00</t>
+    <t>2026-02-21T13:36:54.3404135-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ResearchStudy</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ResearchStudy|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,7 +466,7 @@
     <t>url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.url}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.url|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.version}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>studyDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>descriptionSummary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -603,7 +603,7 @@
     <t>classifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>associatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -641,7 +641,7 @@
     <t>progressStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>recruitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>Target or actual group of participants enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment` has is mapped to FHIR R4 element `ResearchStudy`, but has no comparisons.</t>
+    <t>Element `ResearchStudy.recruitment` is mapped to FHIR R4 element `ResearchStudy` as `SourceIsNarrowerThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:outcomeMeasure</t>
@@ -679,7 +679,7 @@
     <t>outcomeMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -690,26 +690,6 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:result</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ResearchStudy.result from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Citation,http://hl7.org/fhir/StructureDefinition/DiagnosticReport,http://hl7.org/fhir/StructureDefinition/EvidenceReport in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.result` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.result` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -881,7 +861,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -892,7 +872,7 @@
   </si>
   <si>
     <t>Note that the target element context `ResearchStudy.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `ResearchStudy.status` has is mapped to FHIR R4 element `ResearchStudy.status`, but has no comparisons.</t>
+Element `ResearchStudy.status` is mapped to FHIR R4 element `ResearchStudy.status` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ResearchStudy.status.value</t>
@@ -1013,14 +993,14 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ResearchStudy.focus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.focus` has is mapped to FHIR R4 element `ResearchStudy.focus`, but has no comparisons.</t>
+    <t>Element `ResearchStudy.focus` is mapped to FHIR R4 element `ResearchStudy.focus` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ResearchStudy.focus.coding</t>
@@ -1316,102 +1296,6 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>ResearchStudy.site.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.extension:site</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ResearchStudy.site from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.site` has is mapped to FHIR R4 element `ResearchStudy.site`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>ResearchStudy.reasonStopped</t>
   </si>
   <si>
@@ -1480,23 +1364,23 @@
     <t>ResearchStudy.arm.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.arm.extension:comparisonGroup</t>
-  </si>
-  <si>
-    <t>comparisonGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup}
+    <t>ResearchStudy.arm.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ResearchStudy.comparisonGroup from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Describes an expected event or sequence of events for one of the subjects of a study. E.g. for a living subject: exposure to drug A, wash-out, exposure to drug B, wash-out, follow-up. E.g. for a stability study: {store sample from lot A at 25 degrees for 1 month}, {store sample from lot A at 40 degrees for 1 month}.</t>
-  </si>
-  <si>
-    <t>Element `ResearchStudy.comparisonGroup` has is mapped to FHIR R4 element `ResearchStudy.arm`, but has no comparisons.</t>
+    <t>Cross-version extension for ResearchStudy.comparisonGroup.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Allows the comparisonGroup for the study and the comparisonGroup for the subject to be linked easily.</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.comparisonGroup.linkId` has a context of ResearchStudy.arm based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1579,20 +1463,23 @@
     <t>ResearchStudy.objective.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.objective.extension:objective</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective}
+    <t>ResearchStudy.objective.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.description|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ResearchStudy.objective from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ResearchStudy.objective` has is mapped to FHIR R4 element `ResearchStudy.objective`, but has no comparisons.</t>
+    <t>Cross-version extension for ResearchStudy.objective.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Free text description of the objective of the study.  This is what the study is trying to achieve rather than how it is going to achieve it (see ResearchStudy.description).</t>
+  </si>
+  <si>
+    <t>Element `ResearchStudy.objective.description` has a context of ResearchStudy.objective based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>ResearchStudy.objective.modifierExtension</t>
@@ -1932,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1941,7 +1828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.79296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.75" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1951,7 +1838,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4471,13 +4358,11 @@
         <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4490,24 +4375,26 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4555,7 +4442,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4576,7 +4463,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4587,14 +4474,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4607,23 +4494,21 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>226</v>
       </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>227</v>
       </c>
@@ -4674,7 +4559,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4686,30 +4571,30 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4720,7 +4605,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4732,18 +4617,16 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4791,13 +4674,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4806,19 +4689,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -4837,7 +4720,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4912,7 +4795,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4927,10 +4810,10 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4938,14 +4821,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4964,16 +4847,18 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5021,7 +4906,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5036,16 +4921,16 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5053,33 +4938,33 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>254</v>
@@ -5088,9 +4973,7 @@
         <v>255</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5114,13 +4997,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5138,13 +5021,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -5153,27 +5036,27 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5181,7 +5064,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
@@ -5190,19 +5073,19 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5229,13 +5112,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5253,10 +5136,10 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>91</v>
@@ -5265,30 +5148,30 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5296,10 +5179,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5311,13 +5194,13 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5356,31 +5239,29 @@
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5400,12 +5281,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5414,7 +5297,7 @@
         <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5426,15 +5309,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5471,17 +5356,19 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5490,7 +5377,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>142</v>
@@ -5516,17 +5403,15 @@
         <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
@@ -5541,17 +5426,15 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5600,19 +5483,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5632,10 +5515,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5655,16 +5538,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5691,13 +5574,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5715,7 +5598,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5727,10 +5610,10 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5747,10 +5630,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5773,13 +5656,13 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5806,13 +5689,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5830,7 +5713,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5845,7 +5728,7 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5854,7 +5737,7 @@
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5862,10 +5745,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5876,7 +5759,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5888,13 +5771,13 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5921,13 +5804,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>295</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5945,13 +5828,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5960,16 +5843,16 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5977,10 +5860,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6003,13 +5886,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6036,7 +5919,7 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>301</v>
@@ -6060,7 +5943,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6087,15 +5970,15 @@
         <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6106,7 +5989,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6115,16 +5998,16 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6151,10 +6034,10 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6175,42 +6058,42 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6221,7 +6104,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6233,13 +6116,13 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6278,31 +6161,31 @@
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6311,7 +6194,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6322,12 +6205,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6348,15 +6233,17 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6393,19 +6280,19 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6437,14 +6324,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6462,21 +6347,23 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6524,7 +6411,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6536,16 +6423,16 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6556,10 +6443,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6570,7 +6457,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6582,19 +6469,19 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6643,13 +6530,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6661,10 +6548,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6675,10 +6562,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6689,7 +6576,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6701,20 +6588,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O41" t="s" s="2">
         <v>335</v>
       </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6738,13 +6621,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6762,13 +6645,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6777,27 +6660,27 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6820,13 +6703,13 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6853,13 +6736,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6877,7 +6760,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6904,7 +6787,7 @@
         <v>345</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -6932,7 +6815,7 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>347</v>
@@ -7047,16 +6930,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7083,10 +6966,10 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7165,7 +7048,7 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>359</v>
@@ -7198,13 +7081,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="Y45" t="s" s="2">
         <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7237,7 +7120,7 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -7246,7 +7129,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7268,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7277,16 +7160,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7313,13 +7196,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7343,7 +7226,7 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7352,16 +7235,16 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7376,14 +7259,14 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7392,18 +7275,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7458,7 +7343,7 @@
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7467,38 +7352,38 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7510,17 +7395,15 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7569,13 +7452,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7584,31 +7467,31 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7627,13 +7510,13 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7684,7 +7567,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7699,27 +7582,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7742,13 +7625,13 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7799,7 +7682,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7814,19 +7697,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51">
@@ -7845,7 +7728,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7920,7 +7803,7 @@
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7941,15 +7824,15 @@
         <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7960,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7972,7 +7855,7 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>411</v>
@@ -8005,13 +7888,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8029,13 +7912,13 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8044,7 +7927,7 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8053,18 +7936,18 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8075,7 +7958,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8087,13 +7970,13 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8144,28 +8027,28 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>314</v>
+        <v>423</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8176,10 +8059,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8202,13 +8085,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>137</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>138</v>
+        <v>427</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8247,19 +8130,19 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>273</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8271,10 +8154,10 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -8283,7 +8166,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8291,14 +8174,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8319,17 +8200,15 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8378,19 +8257,19 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8399,7 +8278,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8410,10 +8289,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8424,7 +8303,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8433,20 +8312,18 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8483,31 +8360,29 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
@@ -8516,7 +8391,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8527,12 +8402,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8550,19 +8427,19 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8588,13 +8465,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8612,19 +8489,19 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>267</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -8633,7 +8510,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8644,44 +8521,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8729,19 +8608,19 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -8750,7 +8629,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8761,10 +8640,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8772,7 +8651,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -8784,20 +8663,18 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8846,10 +8723,10 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>91</v>
@@ -8861,16 +8738,16 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -8878,10 +8755,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8901,16 +8778,16 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8937,13 +8814,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8961,7 +8838,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8988,15 +8865,15 @@
         <v>452</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9007,7 +8884,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9019,13 +8896,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9076,13 +8953,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9091,16 +8968,16 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9108,10 +8985,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9134,13 +9011,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9191,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9206,7 +9083,7 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -9215,7 +9092,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9223,10 +9100,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9249,13 +9126,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9306,7 +9183,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9327,7 +9204,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9338,10 +9215,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9419,7 +9296,7 @@
         <v>140</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9451,13 +9328,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>81</v>
@@ -9467,7 +9344,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9479,16 +9356,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9538,7 +9415,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9570,14 +9447,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9599,16 +9476,16 @@
         <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9657,7 +9534,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9689,10 +9566,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9700,7 +9577,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -9715,13 +9592,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9772,10 +9649,10 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>91</v>
@@ -9787,7 +9664,7 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
@@ -9796,7 +9673,7 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -9804,10 +9681,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9830,13 +9707,13 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9863,13 +9740,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -9887,7 +9764,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9902,7 +9779,7 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -9911,935 +9788,9 @@
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC72" s="2"/>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
         <v>81</v>
       </c>
     </row>
